--- a/data/Yumbel.xlsx
+++ b/data/Yumbel.xlsx
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/data/Yumbel.xlsx
+++ b/data/Yumbel.xlsx
@@ -2115,7 +2115,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/data/Yumbel.xlsx
+++ b/data/Yumbel.xlsx
@@ -4323,7 +4323,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">

--- a/data/Yumbel.xlsx
+++ b/data/Yumbel.xlsx
@@ -2115,7 +2115,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
